--- a/Team-Data/2008-09/4-3-2008-09.xlsx
+++ b/Team-Data/2008-09/4-3-2008-09.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,28 +733,28 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E2" t="n">
         <v>43</v>
       </c>
       <c r="F2" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G2" t="n">
-        <v>0.5659999999999999</v>
+        <v>0.573</v>
       </c>
       <c r="H2" t="n">
         <v>48.1</v>
       </c>
       <c r="I2" t="n">
-        <v>36.1</v>
+        <v>36.2</v>
       </c>
       <c r="J2" t="n">
-        <v>79</v>
+        <v>78.90000000000001</v>
       </c>
       <c r="K2" t="n">
-        <v>0.458</v>
+        <v>0.459</v>
       </c>
       <c r="L2" t="n">
         <v>7.3</v>
@@ -696,40 +763,40 @@
         <v>20</v>
       </c>
       <c r="N2" t="n">
-        <v>0.366</v>
+        <v>0.367</v>
       </c>
       <c r="O2" t="n">
-        <v>18.3</v>
+        <v>18.2</v>
       </c>
       <c r="P2" t="n">
-        <v>24.9</v>
+        <v>24.8</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.736</v>
+        <v>0.735</v>
       </c>
       <c r="R2" t="n">
-        <v>10.8</v>
+        <v>10.7</v>
       </c>
       <c r="S2" t="n">
-        <v>29.4</v>
+        <v>29.5</v>
       </c>
       <c r="T2" t="n">
         <v>40.2</v>
       </c>
       <c r="U2" t="n">
-        <v>20.3</v>
+        <v>20.4</v>
       </c>
       <c r="V2" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="W2" t="n">
         <v>7.4</v>
       </c>
       <c r="X2" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="Z2" t="n">
         <v>19.5</v>
@@ -738,13 +805,13 @@
         <v>20.4</v>
       </c>
       <c r="AB2" t="n">
-        <v>97.90000000000001</v>
+        <v>98</v>
       </c>
       <c r="AC2" t="n">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="AD2" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AE2" t="n">
         <v>12</v>
@@ -759,13 +826,13 @@
         <v>29</v>
       </c>
       <c r="AI2" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AJ2" t="n">
         <v>24</v>
       </c>
       <c r="AK2" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AL2" t="n">
         <v>8</v>
@@ -777,10 +844,10 @@
         <v>16</v>
       </c>
       <c r="AO2" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AP2" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AQ2" t="n">
         <v>29</v>
@@ -789,25 +856,25 @@
         <v>18</v>
       </c>
       <c r="AS2" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AT2" t="n">
         <v>21</v>
       </c>
       <c r="AU2" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AV2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AW2" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AX2" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AY2" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AZ2" t="n">
         <v>5</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>4-3-2008-09</t>
+          <t>2009-04-03</t>
         </is>
       </c>
     </row>
@@ -863,13 +930,13 @@
         <v>48.5</v>
       </c>
       <c r="I3" t="n">
-        <v>37.5</v>
+        <v>37.4</v>
       </c>
       <c r="J3" t="n">
         <v>77</v>
       </c>
       <c r="K3" t="n">
-        <v>0.487</v>
+        <v>0.485</v>
       </c>
       <c r="L3" t="n">
         <v>6.5</v>
@@ -878,16 +945,16 @@
         <v>16.6</v>
       </c>
       <c r="N3" t="n">
-        <v>0.394</v>
+        <v>0.392</v>
       </c>
       <c r="O3" t="n">
         <v>19.6</v>
       </c>
       <c r="P3" t="n">
-        <v>25.4</v>
+        <v>25.6</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.77</v>
+        <v>0.767</v>
       </c>
       <c r="R3" t="n">
         <v>10.6</v>
@@ -899,7 +966,7 @@
         <v>42.4</v>
       </c>
       <c r="U3" t="n">
-        <v>22.8</v>
+        <v>22.6</v>
       </c>
       <c r="V3" t="n">
         <v>15.8</v>
@@ -908,25 +975,25 @@
         <v>7.6</v>
       </c>
       <c r="X3" t="n">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="Y3" t="n">
         <v>4.7</v>
       </c>
       <c r="Z3" t="n">
-        <v>23.1</v>
+        <v>23.2</v>
       </c>
       <c r="AA3" t="n">
-        <v>22.2</v>
+        <v>22.3</v>
       </c>
       <c r="AB3" t="n">
-        <v>101.1</v>
+        <v>100.9</v>
       </c>
       <c r="AC3" t="n">
-        <v>8.199999999999999</v>
+        <v>8.1</v>
       </c>
       <c r="AD3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE3" t="n">
         <v>3</v>
@@ -938,7 +1005,7 @@
         <v>3</v>
       </c>
       <c r="AH3" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AI3" t="n">
         <v>9</v>
@@ -965,7 +1032,7 @@
         <v>8</v>
       </c>
       <c r="AQ3" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="AR3" t="n">
         <v>21</v>
@@ -986,7 +1053,7 @@
         <v>7</v>
       </c>
       <c r="AX3" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AY3" t="n">
         <v>13</v>
@@ -998,7 +1065,7 @@
         <v>7</v>
       </c>
       <c r="BB3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BC3" t="n">
         <v>2</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>4-3-2008-09</t>
+          <t>2009-04-03</t>
         </is>
       </c>
     </row>
@@ -1030,28 +1097,28 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E4" t="n">
         <v>34</v>
       </c>
       <c r="F4" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G4" t="n">
-        <v>0.447</v>
+        <v>0.453</v>
       </c>
       <c r="H4" t="n">
         <v>48.7</v>
       </c>
       <c r="I4" t="n">
-        <v>35.2</v>
+        <v>35.1</v>
       </c>
       <c r="J4" t="n">
-        <v>76.8</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="K4" t="n">
-        <v>0.458</v>
+        <v>0.457</v>
       </c>
       <c r="L4" t="n">
         <v>6</v>
@@ -1060,22 +1127,22 @@
         <v>16.2</v>
       </c>
       <c r="N4" t="n">
-        <v>0.371</v>
+        <v>0.372</v>
       </c>
       <c r="O4" t="n">
-        <v>17.4</v>
+        <v>17.5</v>
       </c>
       <c r="P4" t="n">
-        <v>23.5</v>
+        <v>23.7</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.74</v>
+        <v>0.741</v>
       </c>
       <c r="R4" t="n">
-        <v>10.7</v>
+        <v>10.8</v>
       </c>
       <c r="S4" t="n">
-        <v>29</v>
+        <v>28.9</v>
       </c>
       <c r="T4" t="n">
         <v>39.7</v>
@@ -1084,7 +1151,7 @@
         <v>21.4</v>
       </c>
       <c r="V4" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="W4" t="n">
         <v>7.1</v>
@@ -1102,13 +1169,13 @@
         <v>20.9</v>
       </c>
       <c r="AB4" t="n">
-        <v>93.8</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="AC4" t="n">
-        <v>-0.8</v>
+        <v>-0.7</v>
       </c>
       <c r="AD4" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AE4" t="n">
         <v>18</v>
@@ -1120,7 +1187,7 @@
         <v>18</v>
       </c>
       <c r="AH4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AI4" t="n">
         <v>29</v>
@@ -1129,7 +1196,7 @@
         <v>30</v>
       </c>
       <c r="AK4" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AL4" t="n">
         <v>22</v>
@@ -1138,19 +1205,19 @@
         <v>22</v>
       </c>
       <c r="AN4" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AO4" t="n">
         <v>26</v>
       </c>
       <c r="AP4" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AQ4" t="n">
         <v>27</v>
       </c>
       <c r="AR4" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AS4" t="n">
         <v>23</v>
@@ -1183,7 +1250,7 @@
         <v>28</v>
       </c>
       <c r="BC4" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BD4" t="n">
         <v>10</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>4-3-2008-09</t>
+          <t>2009-04-03</t>
         </is>
       </c>
     </row>
@@ -1212,55 +1279,55 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E5" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F5" t="n">
         <v>40</v>
       </c>
       <c r="G5" t="n">
-        <v>0.467</v>
+        <v>0.474</v>
       </c>
       <c r="H5" t="n">
         <v>48.7</v>
       </c>
       <c r="I5" t="n">
-        <v>38.2</v>
+        <v>38.1</v>
       </c>
       <c r="J5" t="n">
-        <v>83.7</v>
+        <v>83.5</v>
       </c>
       <c r="K5" t="n">
-        <v>0.456</v>
+        <v>0.457</v>
       </c>
       <c r="L5" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="M5" t="n">
         <v>15.6</v>
       </c>
       <c r="N5" t="n">
-        <v>0.381</v>
+        <v>0.382</v>
       </c>
       <c r="O5" t="n">
-        <v>19.6</v>
+        <v>19.8</v>
       </c>
       <c r="P5" t="n">
-        <v>24.7</v>
+        <v>25</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.793</v>
+        <v>0.792</v>
       </c>
       <c r="R5" t="n">
         <v>11.9</v>
       </c>
       <c r="S5" t="n">
-        <v>30.5</v>
+        <v>30.4</v>
       </c>
       <c r="T5" t="n">
-        <v>42.4</v>
+        <v>42.3</v>
       </c>
       <c r="U5" t="n">
         <v>21</v>
@@ -1281,19 +1348,19 @@
         <v>21</v>
       </c>
       <c r="AA5" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="AB5" t="n">
-        <v>101.9</v>
+        <v>102</v>
       </c>
       <c r="AC5" t="n">
-        <v>-0.9</v>
+        <v>-0.7</v>
       </c>
       <c r="AD5" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="AE5" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AF5" t="n">
         <v>17</v>
@@ -1302,7 +1369,7 @@
         <v>17</v>
       </c>
       <c r="AH5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI5" t="n">
         <v>7</v>
@@ -1326,13 +1393,13 @@
         <v>10</v>
       </c>
       <c r="AP5" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AQ5" t="n">
         <v>7</v>
       </c>
       <c r="AR5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AS5" t="n">
         <v>12</v>
@@ -1359,13 +1426,13 @@
         <v>19</v>
       </c>
       <c r="BA5" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="BB5" t="n">
         <v>9</v>
       </c>
       <c r="BC5" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="BD5" t="n">
         <v>10</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>4-3-2008-09</t>
+          <t>2009-04-03</t>
         </is>
       </c>
     </row>
@@ -1412,28 +1479,28 @@
         <v>36.7</v>
       </c>
       <c r="J6" t="n">
-        <v>78.7</v>
+        <v>78.5</v>
       </c>
       <c r="K6" t="n">
-        <v>0.467</v>
+        <v>0.468</v>
       </c>
       <c r="L6" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="M6" t="n">
         <v>20.5</v>
       </c>
       <c r="N6" t="n">
-        <v>0.39</v>
+        <v>0.387</v>
       </c>
       <c r="O6" t="n">
-        <v>18.6</v>
+        <v>18.7</v>
       </c>
       <c r="P6" t="n">
-        <v>24.5</v>
+        <v>24.7</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.757</v>
+        <v>0.755</v>
       </c>
       <c r="R6" t="n">
         <v>10.7</v>
@@ -1442,37 +1509,37 @@
         <v>31.4</v>
       </c>
       <c r="T6" t="n">
-        <v>42.1</v>
+        <v>42</v>
       </c>
       <c r="U6" t="n">
-        <v>20.2</v>
+        <v>20.3</v>
       </c>
       <c r="V6" t="n">
-        <v>12.6</v>
+        <v>12.7</v>
       </c>
       <c r="W6" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="X6" t="n">
         <v>5.4</v>
       </c>
       <c r="Y6" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="Z6" t="n">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="AA6" t="n">
-        <v>20.2</v>
+        <v>20.4</v>
       </c>
       <c r="AB6" t="n">
         <v>100</v>
       </c>
       <c r="AC6" t="n">
-        <v>8.800000000000001</v>
+        <v>9.1</v>
       </c>
       <c r="AD6" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="AE6" t="n">
         <v>1</v>
@@ -1487,13 +1554,13 @@
         <v>23</v>
       </c>
       <c r="AI6" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AJ6" t="n">
         <v>25</v>
       </c>
       <c r="AK6" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AL6" t="n">
         <v>3</v>
@@ -1502,7 +1569,7 @@
         <v>5</v>
       </c>
       <c r="AN6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO6" t="n">
         <v>19</v>
@@ -1511,7 +1578,7 @@
         <v>15</v>
       </c>
       <c r="AQ6" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AR6" t="n">
         <v>20</v>
@@ -1526,22 +1593,22 @@
         <v>23</v>
       </c>
       <c r="AV6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AW6" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AX6" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AY6" t="n">
         <v>4</v>
       </c>
       <c r="AZ6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA6" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BB6" t="n">
         <v>13</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>4-3-2008-09</t>
+          <t>2009-04-03</t>
         </is>
       </c>
     </row>
@@ -1576,16 +1643,16 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E7" t="n">
         <v>45</v>
       </c>
       <c r="F7" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G7" t="n">
-        <v>0.592</v>
+        <v>0.6</v>
       </c>
       <c r="H7" t="n">
         <v>48.3</v>
@@ -1615,16 +1682,16 @@
         <v>22.4</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.8139999999999999</v>
+        <v>0.8149999999999999</v>
       </c>
       <c r="R7" t="n">
-        <v>11</v>
+        <v>11.1</v>
       </c>
       <c r="S7" t="n">
         <v>31.7</v>
       </c>
       <c r="T7" t="n">
-        <v>42.7</v>
+        <v>42.8</v>
       </c>
       <c r="U7" t="n">
         <v>21.5</v>
@@ -1633,7 +1700,7 @@
         <v>12.9</v>
       </c>
       <c r="W7" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="X7" t="n">
         <v>5.3</v>
@@ -1642,7 +1709,7 @@
         <v>4.1</v>
       </c>
       <c r="Z7" t="n">
-        <v>19.4</v>
+        <v>19.3</v>
       </c>
       <c r="AA7" t="n">
         <v>20</v>
@@ -1651,10 +1718,10 @@
         <v>101.2</v>
       </c>
       <c r="AC7" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="AD7" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AE7" t="n">
         <v>11</v>
@@ -1666,7 +1733,7 @@
         <v>11</v>
       </c>
       <c r="AH7" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AI7" t="n">
         <v>8</v>
@@ -1675,7 +1742,7 @@
         <v>6</v>
       </c>
       <c r="AK7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AL7" t="n">
         <v>12</v>
@@ -1696,7 +1763,7 @@
         <v>2</v>
       </c>
       <c r="AR7" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AS7" t="n">
         <v>6</v>
@@ -1711,7 +1778,7 @@
         <v>8</v>
       </c>
       <c r="AW7" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AX7" t="n">
         <v>8</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>4-3-2008-09</t>
+          <t>2009-04-03</t>
         </is>
       </c>
     </row>
@@ -1836,7 +1903,7 @@
         <v>3.3</v>
       </c>
       <c r="AD8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE8" t="n">
         <v>5</v>
@@ -1860,13 +1927,13 @@
         <v>5</v>
       </c>
       <c r="AL8" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AM8" t="n">
         <v>18</v>
       </c>
       <c r="AN8" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AO8" t="n">
         <v>2</v>
@@ -1878,13 +1945,13 @@
         <v>21</v>
       </c>
       <c r="AR8" t="n">
+        <v>14</v>
+      </c>
+      <c r="AS8" t="n">
         <v>13</v>
       </c>
-      <c r="AS8" t="n">
-        <v>14</v>
-      </c>
       <c r="AT8" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AU8" t="n">
         <v>5</v>
@@ -1893,7 +1960,7 @@
         <v>25</v>
       </c>
       <c r="AW8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AX8" t="n">
         <v>2</v>
@@ -1908,7 +1975,7 @@
         <v>2</v>
       </c>
       <c r="BB8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BC8" t="n">
         <v>8</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>4-3-2008-09</t>
+          <t>2009-04-03</t>
         </is>
       </c>
     </row>
@@ -2018,7 +2085,7 @@
         <v>-0.8</v>
       </c>
       <c r="AD9" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="AE9" t="n">
         <v>16</v>
@@ -2030,7 +2097,7 @@
         <v>16</v>
       </c>
       <c r="AH9" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AI9" t="n">
         <v>22</v>
@@ -2048,7 +2115,7 @@
         <v>29</v>
       </c>
       <c r="AN9" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AO9" t="n">
         <v>29</v>
@@ -2060,13 +2127,13 @@
         <v>24</v>
       </c>
       <c r="AR9" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AS9" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AT9" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AU9" t="n">
         <v>16</v>
@@ -2081,7 +2148,7 @@
         <v>20</v>
       </c>
       <c r="AY9" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AZ9" t="n">
         <v>18</v>
@@ -2093,7 +2160,7 @@
         <v>29</v>
       </c>
       <c r="BC9" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BD9" t="n">
         <v>10</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>4-3-2008-09</t>
+          <t>2009-04-03</t>
         </is>
       </c>
     </row>
@@ -2122,25 +2189,25 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E10" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F10" t="n">
         <v>49</v>
       </c>
       <c r="G10" t="n">
-        <v>0.355</v>
+        <v>0.347</v>
       </c>
       <c r="H10" t="n">
         <v>48.5</v>
       </c>
       <c r="I10" t="n">
-        <v>39.6</v>
+        <v>39.7</v>
       </c>
       <c r="J10" t="n">
-        <v>86.2</v>
+        <v>86.3</v>
       </c>
       <c r="K10" t="n">
         <v>0.46</v>
@@ -2149,19 +2216,19 @@
         <v>6.7</v>
       </c>
       <c r="M10" t="n">
-        <v>18.1</v>
+        <v>18</v>
       </c>
       <c r="N10" t="n">
         <v>0.371</v>
       </c>
       <c r="O10" t="n">
-        <v>23.1</v>
+        <v>23</v>
       </c>
       <c r="P10" t="n">
-        <v>29.3</v>
+        <v>29.2</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.79</v>
+        <v>0.789</v>
       </c>
       <c r="R10" t="n">
         <v>11.6</v>
@@ -2173,13 +2240,13 @@
         <v>42</v>
       </c>
       <c r="U10" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="V10" t="n">
         <v>14.9</v>
       </c>
       <c r="W10" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="X10" t="n">
         <v>6.4</v>
@@ -2191,16 +2258,16 @@
         <v>22.4</v>
       </c>
       <c r="AA10" t="n">
-        <v>23.5</v>
+        <v>23.4</v>
       </c>
       <c r="AB10" t="n">
         <v>109.1</v>
       </c>
       <c r="AC10" t="n">
-        <v>-3.6</v>
+        <v>-3.8</v>
       </c>
       <c r="AD10" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AE10" t="n">
         <v>24</v>
@@ -2212,16 +2279,16 @@
         <v>24</v>
       </c>
       <c r="AH10" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AI10" t="n">
         <v>3</v>
       </c>
       <c r="AJ10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AK10" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AL10" t="n">
         <v>16</v>
@@ -2230,7 +2297,7 @@
         <v>17</v>
       </c>
       <c r="AN10" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AO10" t="n">
         <v>1</v>
@@ -2245,10 +2312,10 @@
         <v>9</v>
       </c>
       <c r="AS10" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AT10" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AU10" t="n">
         <v>14</v>
@@ -2272,7 +2339,7 @@
         <v>3</v>
       </c>
       <c r="BB10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BC10" t="n">
         <v>24</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>4-3-2008-09</t>
+          <t>2009-04-03</t>
         </is>
       </c>
     </row>
@@ -2304,25 +2371,25 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E11" t="n">
         <v>48</v>
       </c>
       <c r="F11" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G11" t="n">
-        <v>0.632</v>
+        <v>0.64</v>
       </c>
       <c r="H11" t="n">
         <v>48.3</v>
       </c>
       <c r="I11" t="n">
-        <v>35.9</v>
+        <v>36</v>
       </c>
       <c r="J11" t="n">
-        <v>79.59999999999999</v>
+        <v>79.7</v>
       </c>
       <c r="K11" t="n">
         <v>0.452</v>
@@ -2334,16 +2401,16 @@
         <v>20.4</v>
       </c>
       <c r="N11" t="n">
-        <v>0.375</v>
+        <v>0.377</v>
       </c>
       <c r="O11" t="n">
-        <v>18.8</v>
+        <v>18.9</v>
       </c>
       <c r="P11" t="n">
         <v>23.4</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.804</v>
+        <v>0.806</v>
       </c>
       <c r="R11" t="n">
         <v>10.4</v>
@@ -2358,13 +2425,13 @@
         <v>20.4</v>
       </c>
       <c r="V11" t="n">
-        <v>14.3</v>
+        <v>14.2</v>
       </c>
       <c r="W11" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="X11" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="Y11" t="n">
         <v>5.3</v>
@@ -2376,34 +2443,34 @@
         <v>20.7</v>
       </c>
       <c r="AB11" t="n">
-        <v>98.40000000000001</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="AC11" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="AD11" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AE11" t="n">
+        <v>6</v>
+      </c>
+      <c r="AF11" t="n">
         <v>7</v>
       </c>
-      <c r="AF11" t="n">
-        <v>8</v>
-      </c>
       <c r="AG11" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AH11" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AI11" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AJ11" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AK11" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AL11" t="n">
         <v>7</v>
@@ -2412,10 +2479,10 @@
         <v>6</v>
       </c>
       <c r="AN11" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AO11" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AP11" t="n">
         <v>22</v>
@@ -2433,16 +2500,16 @@
         <v>4</v>
       </c>
       <c r="AU11" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AV11" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AW11" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AX11" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AY11" t="n">
         <v>23</v>
@@ -2451,13 +2518,13 @@
         <v>2</v>
       </c>
       <c r="BA11" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="BB11" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="BC11" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BD11" t="n">
         <v>10</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>4-3-2008-09</t>
+          <t>2009-04-03</t>
         </is>
       </c>
     </row>
@@ -2486,28 +2553,28 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E12" t="n">
         <v>32</v>
       </c>
       <c r="F12" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G12" t="n">
-        <v>0.421</v>
+        <v>0.427</v>
       </c>
       <c r="H12" t="n">
         <v>48.4</v>
       </c>
       <c r="I12" t="n">
-        <v>39</v>
+        <v>38.9</v>
       </c>
       <c r="J12" t="n">
-        <v>86.3</v>
+        <v>86.2</v>
       </c>
       <c r="K12" t="n">
-        <v>0.452</v>
+        <v>0.451</v>
       </c>
       <c r="L12" t="n">
         <v>7.9</v>
@@ -2516,16 +2583,16 @@
         <v>21</v>
       </c>
       <c r="N12" t="n">
-        <v>0.376</v>
+        <v>0.375</v>
       </c>
       <c r="O12" t="n">
         <v>18.3</v>
       </c>
       <c r="P12" t="n">
-        <v>22.7</v>
+        <v>22.8</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.804</v>
+        <v>0.805</v>
       </c>
       <c r="R12" t="n">
         <v>11.2</v>
@@ -2540,7 +2607,7 @@
         <v>21.7</v>
       </c>
       <c r="V12" t="n">
-        <v>14.6</v>
+        <v>14.7</v>
       </c>
       <c r="W12" t="n">
         <v>6.9</v>
@@ -2558,13 +2625,13 @@
         <v>20.7</v>
       </c>
       <c r="AB12" t="n">
-        <v>104.2</v>
+        <v>104</v>
       </c>
       <c r="AC12" t="n">
         <v>-1.8</v>
       </c>
       <c r="AD12" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AE12" t="n">
         <v>19</v>
@@ -2576,28 +2643,28 @@
         <v>19</v>
       </c>
       <c r="AH12" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI12" t="n">
         <v>4</v>
       </c>
       <c r="AJ12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AK12" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AL12" t="n">
         <v>4</v>
       </c>
       <c r="AM12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AN12" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AO12" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AP12" t="n">
         <v>27</v>
@@ -2609,7 +2676,7 @@
         <v>12</v>
       </c>
       <c r="AS12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AT12" t="n">
         <v>2</v>
@@ -2618,7 +2685,7 @@
         <v>7</v>
       </c>
       <c r="AV12" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AW12" t="n">
         <v>23</v>
@@ -2633,10 +2700,10 @@
         <v>28</v>
       </c>
       <c r="BA12" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BB12" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BC12" t="n">
         <v>20</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>4-3-2008-09</t>
+          <t>2009-04-03</t>
         </is>
       </c>
     </row>
@@ -2746,7 +2813,7 @@
         <v>-8.6</v>
       </c>
       <c r="AD13" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="AE13" t="n">
         <v>28</v>
@@ -2758,10 +2825,10 @@
         <v>28</v>
       </c>
       <c r="AH13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AI13" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AJ13" t="n">
         <v>10</v>
@@ -2770,13 +2837,13 @@
         <v>29</v>
       </c>
       <c r="AL13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AM13" t="n">
         <v>16</v>
       </c>
       <c r="AN13" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AO13" t="n">
         <v>28</v>
@@ -2791,7 +2858,7 @@
         <v>16</v>
       </c>
       <c r="AS13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AT13" t="n">
         <v>25</v>
@@ -2800,7 +2867,7 @@
         <v>13</v>
       </c>
       <c r="AV13" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AW13" t="n">
         <v>24</v>
@@ -2809,10 +2876,10 @@
         <v>3</v>
       </c>
       <c r="AY13" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AZ13" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BA13" t="n">
         <v>27</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>4-3-2008-09</t>
+          <t>2009-04-03</t>
         </is>
       </c>
     </row>
@@ -2868,22 +2935,22 @@
         <v>40.4</v>
       </c>
       <c r="J14" t="n">
-        <v>85.2</v>
+        <v>85.09999999999999</v>
       </c>
       <c r="K14" t="n">
-        <v>0.474</v>
+        <v>0.475</v>
       </c>
       <c r="L14" t="n">
         <v>6.7</v>
       </c>
       <c r="M14" t="n">
-        <v>18.6</v>
+        <v>18.5</v>
       </c>
       <c r="N14" t="n">
-        <v>0.362</v>
+        <v>0.364</v>
       </c>
       <c r="O14" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="P14" t="n">
         <v>25.4</v>
@@ -2895,28 +2962,28 @@
         <v>12.5</v>
       </c>
       <c r="S14" t="n">
-        <v>31.5</v>
+        <v>31.6</v>
       </c>
       <c r="T14" t="n">
-        <v>44</v>
+        <v>44.1</v>
       </c>
       <c r="U14" t="n">
         <v>23.3</v>
       </c>
       <c r="V14" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="W14" t="n">
-        <v>8.800000000000001</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="X14" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="Y14" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="Z14" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="AA14" t="n">
         <v>22.1</v>
@@ -2925,10 +2992,10 @@
         <v>107.1</v>
       </c>
       <c r="AC14" t="n">
-        <v>7.3</v>
+        <v>7.5</v>
       </c>
       <c r="AD14" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="AE14" t="n">
         <v>2</v>
@@ -2952,7 +3019,7 @@
         <v>4</v>
       </c>
       <c r="AL14" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AM14" t="n">
         <v>15</v>
@@ -2967,7 +3034,7 @@
         <v>11</v>
       </c>
       <c r="AQ14" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AR14" t="n">
         <v>3</v>
@@ -2985,13 +3052,13 @@
         <v>11</v>
       </c>
       <c r="AW14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AX14" t="n">
         <v>9</v>
       </c>
       <c r="AY14" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AZ14" t="n">
         <v>12</v>
@@ -3003,7 +3070,7 @@
         <v>3</v>
       </c>
       <c r="BC14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BD14" t="n">
         <v>10</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>4-3-2008-09</t>
+          <t>2009-04-03</t>
         </is>
       </c>
     </row>
@@ -3032,16 +3099,16 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E15" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F15" t="n">
         <v>54</v>
       </c>
       <c r="G15" t="n">
-        <v>0.28</v>
+        <v>0.27</v>
       </c>
       <c r="H15" t="n">
         <v>48.3</v>
@@ -3053,16 +3120,16 @@
         <v>77.3</v>
       </c>
       <c r="K15" t="n">
-        <v>0.452</v>
+        <v>0.451</v>
       </c>
       <c r="L15" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="M15" t="n">
         <v>13.3</v>
       </c>
       <c r="N15" t="n">
-        <v>0.352</v>
+        <v>0.349</v>
       </c>
       <c r="O15" t="n">
         <v>19.2</v>
@@ -3071,7 +3138,7 @@
         <v>25.4</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.756</v>
+        <v>0.757</v>
       </c>
       <c r="R15" t="n">
         <v>10.5</v>
@@ -3080,16 +3147,16 @@
         <v>28.3</v>
       </c>
       <c r="T15" t="n">
-        <v>38.9</v>
+        <v>38.8</v>
       </c>
       <c r="U15" t="n">
-        <v>17.2</v>
+        <v>17.3</v>
       </c>
       <c r="V15" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="W15" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="X15" t="n">
         <v>4.6</v>
@@ -3104,34 +3171,34 @@
         <v>21.8</v>
       </c>
       <c r="AB15" t="n">
-        <v>93.7</v>
+        <v>93.59999999999999</v>
       </c>
       <c r="AC15" t="n">
-        <v>-5.9</v>
+        <v>-6.1</v>
       </c>
       <c r="AD15" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="AE15" t="n">
+        <v>27</v>
+      </c>
+      <c r="AF15" t="n">
         <v>26</v>
       </c>
-      <c r="AF15" t="n">
-        <v>25</v>
-      </c>
       <c r="AG15" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AH15" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AI15" t="n">
         <v>30</v>
       </c>
       <c r="AJ15" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AK15" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AL15" t="n">
         <v>27</v>
@@ -3140,16 +3207,16 @@
         <v>27</v>
       </c>
       <c r="AN15" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AO15" t="n">
         <v>13</v>
       </c>
       <c r="AP15" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AQ15" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AR15" t="n">
         <v>22</v>
@@ -3167,7 +3234,7 @@
         <v>24</v>
       </c>
       <c r="AW15" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AX15" t="n">
         <v>21</v>
@@ -3176,7 +3243,7 @@
         <v>26</v>
       </c>
       <c r="AZ15" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BA15" t="n">
         <v>9</v>
@@ -3185,7 +3252,7 @@
         <v>30</v>
       </c>
       <c r="BC15" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BD15" t="n">
         <v>10</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>4-3-2008-09</t>
+          <t>2009-04-03</t>
         </is>
       </c>
     </row>
@@ -3214,16 +3281,16 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E16" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F16" t="n">
         <v>36</v>
       </c>
       <c r="G16" t="n">
-        <v>0.526</v>
+        <v>0.52</v>
       </c>
       <c r="H16" t="n">
         <v>48.6</v>
@@ -3232,7 +3299,7 @@
         <v>36.9</v>
       </c>
       <c r="J16" t="n">
-        <v>81.09999999999999</v>
+        <v>81.2</v>
       </c>
       <c r="K16" t="n">
         <v>0.455</v>
@@ -3241,28 +3308,28 @@
         <v>6.8</v>
       </c>
       <c r="M16" t="n">
-        <v>19.3</v>
+        <v>19.4</v>
       </c>
       <c r="N16" t="n">
-        <v>0.353</v>
+        <v>0.351</v>
       </c>
       <c r="O16" t="n">
-        <v>17.4</v>
+        <v>17.5</v>
       </c>
       <c r="P16" t="n">
-        <v>23</v>
+        <v>22.9</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.759</v>
+        <v>0.761</v>
       </c>
       <c r="R16" t="n">
-        <v>10.1</v>
+        <v>10.2</v>
       </c>
       <c r="S16" t="n">
         <v>29.1</v>
       </c>
       <c r="T16" t="n">
-        <v>39.1</v>
+        <v>39.3</v>
       </c>
       <c r="U16" t="n">
         <v>20.4</v>
@@ -3271,7 +3338,7 @@
         <v>12.4</v>
       </c>
       <c r="W16" t="n">
-        <v>8.199999999999999</v>
+        <v>8.1</v>
       </c>
       <c r="X16" t="n">
         <v>5.5</v>
@@ -3283,16 +3350,16 @@
         <v>20.7</v>
       </c>
       <c r="AA16" t="n">
-        <v>20</v>
+        <v>19.9</v>
       </c>
       <c r="AB16" t="n">
         <v>98.09999999999999</v>
       </c>
       <c r="AC16" t="n">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="AD16" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AE16" t="n">
         <v>14</v>
@@ -3310,7 +3377,7 @@
         <v>12</v>
       </c>
       <c r="AJ16" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AK16" t="n">
         <v>18</v>
@@ -3322,10 +3389,10 @@
         <v>10</v>
       </c>
       <c r="AN16" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AO16" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AP16" t="n">
         <v>23</v>
@@ -3349,7 +3416,7 @@
         <v>3</v>
       </c>
       <c r="AW16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AX16" t="n">
         <v>5</v>
@@ -3364,7 +3431,7 @@
         <v>25</v>
       </c>
       <c r="BB16" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BC16" t="n">
         <v>15</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>4-3-2008-09</t>
+          <t>2009-04-03</t>
         </is>
       </c>
     </row>
@@ -3396,16 +3463,16 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E17" t="n">
         <v>32</v>
       </c>
       <c r="F17" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G17" t="n">
-        <v>0.421</v>
+        <v>0.416</v>
       </c>
       <c r="H17" t="n">
         <v>48.3</v>
@@ -3417,22 +3484,22 @@
         <v>82.3</v>
       </c>
       <c r="K17" t="n">
-        <v>0.443</v>
+        <v>0.444</v>
       </c>
       <c r="L17" t="n">
         <v>6.1</v>
       </c>
       <c r="M17" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="N17" t="n">
-        <v>0.36</v>
+        <v>0.361</v>
       </c>
       <c r="O17" t="n">
-        <v>19.9</v>
+        <v>19.8</v>
       </c>
       <c r="P17" t="n">
-        <v>25.4</v>
+        <v>25.3</v>
       </c>
       <c r="Q17" t="n">
         <v>0.781</v>
@@ -3441,16 +3508,16 @@
         <v>12</v>
       </c>
       <c r="S17" t="n">
-        <v>28.9</v>
+        <v>28.8</v>
       </c>
       <c r="T17" t="n">
-        <v>40.9</v>
+        <v>40.8</v>
       </c>
       <c r="U17" t="n">
         <v>21.6</v>
       </c>
       <c r="V17" t="n">
-        <v>14.1</v>
+        <v>14.2</v>
       </c>
       <c r="W17" t="n">
         <v>7.4</v>
@@ -3462,34 +3529,34 @@
         <v>4.6</v>
       </c>
       <c r="Z17" t="n">
-        <v>24.2</v>
+        <v>24.3</v>
       </c>
       <c r="AA17" t="n">
-        <v>22.8</v>
+        <v>22.7</v>
       </c>
       <c r="AB17" t="n">
         <v>98.90000000000001</v>
       </c>
       <c r="AC17" t="n">
-        <v>-1.2</v>
+        <v>-1.4</v>
       </c>
       <c r="AD17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE17" t="n">
         <v>19</v>
       </c>
       <c r="AF17" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AG17" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AH17" t="n">
         <v>22</v>
       </c>
       <c r="AI17" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AJ17" t="n">
         <v>8</v>
@@ -3504,13 +3571,13 @@
         <v>20</v>
       </c>
       <c r="AN17" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AO17" t="n">
         <v>9</v>
       </c>
       <c r="AP17" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AQ17" t="n">
         <v>11</v>
@@ -3519,7 +3586,7 @@
         <v>5</v>
       </c>
       <c r="AS17" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AT17" t="n">
         <v>20</v>
@@ -3528,7 +3595,7 @@
         <v>8</v>
       </c>
       <c r="AV17" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AW17" t="n">
         <v>11</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>4-3-2008-09</t>
+          <t>2009-04-03</t>
         </is>
       </c>
     </row>
@@ -3578,16 +3645,16 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E18" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F18" t="n">
         <v>54</v>
       </c>
       <c r="G18" t="n">
-        <v>0.289</v>
+        <v>0.28</v>
       </c>
       <c r="H18" t="n">
         <v>48.3</v>
@@ -3596,25 +3663,25 @@
         <v>36.4</v>
       </c>
       <c r="J18" t="n">
-        <v>82.5</v>
+        <v>82.59999999999999</v>
       </c>
       <c r="K18" t="n">
-        <v>0.442</v>
+        <v>0.441</v>
       </c>
       <c r="L18" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="M18" t="n">
-        <v>18.7</v>
+        <v>18.6</v>
       </c>
       <c r="N18" t="n">
-        <v>0.353</v>
+        <v>0.351</v>
       </c>
       <c r="O18" t="n">
-        <v>18.7</v>
+        <v>18.8</v>
       </c>
       <c r="P18" t="n">
-        <v>24.2</v>
+        <v>24.4</v>
       </c>
       <c r="Q18" t="n">
         <v>0.77</v>
@@ -3623,16 +3690,16 @@
         <v>11.9</v>
       </c>
       <c r="S18" t="n">
-        <v>29.6</v>
+        <v>29.5</v>
       </c>
       <c r="T18" t="n">
         <v>41.5</v>
       </c>
       <c r="U18" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="V18" t="n">
-        <v>14.3</v>
+        <v>14.2</v>
       </c>
       <c r="W18" t="n">
         <v>6.2</v>
@@ -3653,25 +3720,25 @@
         <v>98.09999999999999</v>
       </c>
       <c r="AC18" t="n">
-        <v>-4.9</v>
+        <v>-5</v>
       </c>
       <c r="AD18" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AE18" t="n">
         <v>25</v>
       </c>
       <c r="AF18" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AG18" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AH18" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AI18" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AJ18" t="n">
         <v>7</v>
@@ -3680,37 +3747,37 @@
         <v>30</v>
       </c>
       <c r="AL18" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AM18" t="n">
         <v>14</v>
       </c>
       <c r="AN18" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AO18" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AP18" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AQ18" t="n">
         <v>15</v>
       </c>
       <c r="AR18" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AS18" t="n">
         <v>19</v>
       </c>
       <c r="AT18" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AU18" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AV18" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AW18" t="n">
         <v>27</v>
@@ -3722,13 +3789,13 @@
         <v>30</v>
       </c>
       <c r="AZ18" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BA18" t="n">
         <v>23</v>
       </c>
       <c r="BB18" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BC18" t="n">
         <v>25</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>4-3-2008-09</t>
+          <t>2009-04-03</t>
         </is>
       </c>
     </row>
@@ -3838,13 +3905,13 @@
         <v>-2.6</v>
       </c>
       <c r="AD19" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="AE19" t="n">
         <v>21</v>
       </c>
       <c r="AF19" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AG19" t="n">
         <v>21</v>
@@ -3865,7 +3932,7 @@
         <v>5</v>
       </c>
       <c r="AM19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AN19" t="n">
         <v>11</v>
@@ -3883,7 +3950,7 @@
         <v>24</v>
       </c>
       <c r="AS19" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AT19" t="n">
         <v>26</v>
@@ -3898,19 +3965,19 @@
         <v>22</v>
       </c>
       <c r="AX19" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AY19" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AZ19" t="n">
         <v>25</v>
       </c>
       <c r="BA19" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BB19" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BC19" t="n">
         <v>21</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>4-3-2008-09</t>
+          <t>2009-04-03</t>
         </is>
       </c>
     </row>
@@ -3942,25 +4009,25 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E20" t="n">
         <v>47</v>
       </c>
       <c r="F20" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G20" t="n">
-        <v>0.627</v>
+        <v>0.635</v>
       </c>
       <c r="H20" t="n">
         <v>48.1</v>
       </c>
       <c r="I20" t="n">
-        <v>35.4</v>
+        <v>35.3</v>
       </c>
       <c r="J20" t="n">
-        <v>77.5</v>
+        <v>77.2</v>
       </c>
       <c r="K20" t="n">
         <v>0.457</v>
@@ -3969,10 +4036,10 @@
         <v>6.9</v>
       </c>
       <c r="M20" t="n">
-        <v>18.8</v>
+        <v>18.7</v>
       </c>
       <c r="N20" t="n">
-        <v>0.366</v>
+        <v>0.367</v>
       </c>
       <c r="O20" t="n">
         <v>18.5</v>
@@ -3981,16 +4048,16 @@
         <v>22.8</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.8110000000000001</v>
       </c>
       <c r="R20" t="n">
-        <v>10</v>
+        <v>9.9</v>
       </c>
       <c r="S20" t="n">
         <v>30</v>
       </c>
       <c r="T20" t="n">
-        <v>40</v>
+        <v>39.9</v>
       </c>
       <c r="U20" t="n">
         <v>19.8</v>
@@ -4002,34 +4069,34 @@
         <v>7.3</v>
       </c>
       <c r="X20" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="Y20" t="n">
         <v>3.6</v>
       </c>
       <c r="Z20" t="n">
-        <v>20.3</v>
+        <v>20.1</v>
       </c>
       <c r="AA20" t="n">
         <v>20.7</v>
       </c>
       <c r="AB20" t="n">
-        <v>96.2</v>
+        <v>96.09999999999999</v>
       </c>
       <c r="AC20" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="AD20" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="AE20" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AF20" t="n">
+        <v>7</v>
+      </c>
+      <c r="AG20" t="n">
         <v>8</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>9</v>
       </c>
       <c r="AH20" t="n">
         <v>28</v>
@@ -4038,10 +4105,10 @@
         <v>28</v>
       </c>
       <c r="AJ20" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AK20" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AL20" t="n">
         <v>11</v>
@@ -4053,10 +4120,10 @@
         <v>17</v>
       </c>
       <c r="AO20" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AP20" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AQ20" t="n">
         <v>3</v>
@@ -4074,19 +4141,19 @@
         <v>28</v>
       </c>
       <c r="AV20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AW20" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AX20" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AY20" t="n">
         <v>1</v>
       </c>
       <c r="AZ20" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BA20" t="n">
         <v>16</v>
@@ -4095,7 +4162,7 @@
         <v>25</v>
       </c>
       <c r="BC20" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BD20" t="n">
         <v>10</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>4-3-2008-09</t>
+          <t>2009-04-03</t>
         </is>
       </c>
     </row>
@@ -4202,7 +4269,7 @@
         <v>-2.7</v>
       </c>
       <c r="AD21" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="AE21" t="n">
         <v>22</v>
@@ -4214,7 +4281,7 @@
         <v>23</v>
       </c>
       <c r="AH21" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AI21" t="n">
         <v>5</v>
@@ -4235,16 +4302,16 @@
         <v>21</v>
       </c>
       <c r="AO21" t="n">
+        <v>21</v>
+      </c>
+      <c r="AP21" t="n">
         <v>20</v>
-      </c>
-      <c r="AP21" t="n">
-        <v>19</v>
       </c>
       <c r="AQ21" t="n">
         <v>10</v>
       </c>
       <c r="AR21" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AS21" t="n">
         <v>9</v>
@@ -4256,10 +4323,10 @@
         <v>12</v>
       </c>
       <c r="AV21" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AW21" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AX21" t="n">
         <v>30</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>4-3-2008-09</t>
+          <t>2009-04-03</t>
         </is>
       </c>
     </row>
@@ -4306,43 +4373,43 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E22" t="n">
         <v>21</v>
       </c>
       <c r="F22" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G22" t="n">
-        <v>0.28</v>
+        <v>0.284</v>
       </c>
       <c r="H22" t="n">
         <v>48.3</v>
       </c>
       <c r="I22" t="n">
-        <v>36.4</v>
+        <v>36.5</v>
       </c>
       <c r="J22" t="n">
-        <v>81.7</v>
+        <v>81.8</v>
       </c>
       <c r="K22" t="n">
-        <v>0.445</v>
+        <v>0.446</v>
       </c>
       <c r="L22" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="M22" t="n">
         <v>11.6</v>
       </c>
       <c r="N22" t="n">
-        <v>0.346</v>
+        <v>0.348</v>
       </c>
       <c r="O22" t="n">
         <v>20</v>
       </c>
       <c r="P22" t="n">
-        <v>25.4</v>
+        <v>25.5</v>
       </c>
       <c r="Q22" t="n">
         <v>0.786</v>
@@ -4351,55 +4418,55 @@
         <v>12.3</v>
       </c>
       <c r="S22" t="n">
-        <v>30.3</v>
+        <v>30.4</v>
       </c>
       <c r="T22" t="n">
-        <v>42.5</v>
+        <v>42.7</v>
       </c>
       <c r="U22" t="n">
         <v>20.1</v>
       </c>
       <c r="V22" t="n">
-        <v>16.3</v>
+        <v>16.4</v>
       </c>
       <c r="W22" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="X22" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="Y22" t="n">
         <v>4.9</v>
       </c>
       <c r="Z22" t="n">
-        <v>20.3</v>
+        <v>20.4</v>
       </c>
       <c r="AA22" t="n">
         <v>20.4</v>
       </c>
       <c r="AB22" t="n">
-        <v>96.8</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="AC22" t="n">
-        <v>-6.1</v>
+        <v>-5.7</v>
       </c>
       <c r="AD22" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="AE22" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AF22" t="n">
         <v>25</v>
       </c>
       <c r="AG22" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AH22" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AI22" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AJ22" t="n">
         <v>9</v>
@@ -4417,7 +4484,7 @@
         <v>27</v>
       </c>
       <c r="AO22" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AP22" t="n">
         <v>9</v>
@@ -4429,19 +4496,19 @@
         <v>4</v>
       </c>
       <c r="AS22" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AT22" t="n">
         <v>6</v>
       </c>
       <c r="AU22" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AV22" t="n">
         <v>30</v>
       </c>
       <c r="AW22" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AX22" t="n">
         <v>22</v>
@@ -4456,10 +4523,10 @@
         <v>19</v>
       </c>
       <c r="BB22" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BC22" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BD22" t="n">
         <v>10</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>4-3-2008-09</t>
+          <t>2009-04-03</t>
         </is>
       </c>
     </row>
@@ -4488,28 +4555,28 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E23" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F23" t="n">
         <v>19</v>
       </c>
       <c r="G23" t="n">
-        <v>0.747</v>
+        <v>0.743</v>
       </c>
       <c r="H23" t="n">
         <v>48.1</v>
       </c>
       <c r="I23" t="n">
-        <v>36</v>
+        <v>35.9</v>
       </c>
       <c r="J23" t="n">
         <v>78.09999999999999</v>
       </c>
       <c r="K23" t="n">
-        <v>0.461</v>
+        <v>0.46</v>
       </c>
       <c r="L23" t="n">
         <v>10.2</v>
@@ -4518,55 +4585,55 @@
         <v>26.4</v>
       </c>
       <c r="N23" t="n">
-        <v>0.388</v>
+        <v>0.386</v>
       </c>
       <c r="O23" t="n">
-        <v>19.9</v>
+        <v>20</v>
       </c>
       <c r="P23" t="n">
-        <v>27.7</v>
+        <v>27.8</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.719</v>
+        <v>0.72</v>
       </c>
       <c r="R23" t="n">
         <v>9.9</v>
       </c>
       <c r="S23" t="n">
-        <v>33.4</v>
+        <v>33.3</v>
       </c>
       <c r="T23" t="n">
         <v>43.2</v>
       </c>
       <c r="U23" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="V23" t="n">
-        <v>14.2</v>
+        <v>14.3</v>
       </c>
       <c r="W23" t="n">
         <v>7.1</v>
       </c>
       <c r="X23" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="Y23" t="n">
         <v>3.7</v>
       </c>
       <c r="Z23" t="n">
-        <v>20.2</v>
+        <v>20.3</v>
       </c>
       <c r="AA23" t="n">
-        <v>22.5</v>
+        <v>22.6</v>
       </c>
       <c r="AB23" t="n">
-        <v>102.2</v>
+        <v>102.1</v>
       </c>
       <c r="AC23" t="n">
-        <v>7.5</v>
+        <v>7.2</v>
       </c>
       <c r="AD23" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="AE23" t="n">
         <v>4</v>
@@ -4578,10 +4645,10 @@
         <v>4</v>
       </c>
       <c r="AH23" t="n">
+        <v>25</v>
+      </c>
+      <c r="AI23" t="n">
         <v>26</v>
-      </c>
-      <c r="AI23" t="n">
-        <v>25</v>
       </c>
       <c r="AJ23" t="n">
         <v>26</v>
@@ -4608,7 +4675,7 @@
         <v>30</v>
       </c>
       <c r="AR23" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AS23" t="n">
         <v>1</v>
@@ -4620,28 +4687,28 @@
         <v>29</v>
       </c>
       <c r="AV23" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AW23" t="n">
         <v>21</v>
       </c>
       <c r="AX23" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AY23" t="n">
         <v>2</v>
       </c>
       <c r="AZ23" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BA23" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BB23" t="n">
         <v>8</v>
       </c>
       <c r="BC23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BD23" t="n">
         <v>10</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>4-3-2008-09</t>
+          <t>2009-04-03</t>
         </is>
       </c>
     </row>
@@ -4748,10 +4815,10 @@
         <v>0.9</v>
       </c>
       <c r="AD24" t="n">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="AE24" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AF24" t="n">
         <v>14</v>
@@ -4763,7 +4830,7 @@
         <v>25</v>
       </c>
       <c r="AI24" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AJ24" t="n">
         <v>17</v>
@@ -4781,7 +4848,7 @@
         <v>30</v>
       </c>
       <c r="AO24" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AP24" t="n">
         <v>6</v>
@@ -4796,16 +4863,16 @@
         <v>26</v>
       </c>
       <c r="AT24" t="n">
+        <v>15</v>
+      </c>
+      <c r="AU24" t="n">
+        <v>22</v>
+      </c>
+      <c r="AV24" t="n">
         <v>16</v>
       </c>
-      <c r="AU24" t="n">
-        <v>21</v>
-      </c>
-      <c r="AV24" t="n">
-        <v>15</v>
-      </c>
       <c r="AW24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AX24" t="n">
         <v>12</v>
@@ -4814,7 +4881,7 @@
         <v>14</v>
       </c>
       <c r="AZ24" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BA24" t="n">
         <v>10</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>4-3-2008-09</t>
+          <t>2009-04-03</t>
         </is>
       </c>
     </row>
@@ -4852,55 +4919,55 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E25" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F25" t="n">
         <v>34</v>
       </c>
       <c r="G25" t="n">
-        <v>0.553</v>
+        <v>0.547</v>
       </c>
       <c r="H25" t="n">
         <v>48.2</v>
       </c>
       <c r="I25" t="n">
-        <v>41.3</v>
+        <v>41.1</v>
       </c>
       <c r="J25" t="n">
-        <v>81.7</v>
+        <v>81.5</v>
       </c>
       <c r="K25" t="n">
         <v>0.505</v>
       </c>
       <c r="L25" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="M25" t="n">
-        <v>17.7</v>
+        <v>17.6</v>
       </c>
       <c r="N25" t="n">
-        <v>0.385</v>
+        <v>0.382</v>
       </c>
       <c r="O25" t="n">
         <v>20.1</v>
       </c>
       <c r="P25" t="n">
-        <v>27</v>
+        <v>26.9</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.747</v>
+        <v>0.748</v>
       </c>
       <c r="R25" t="n">
-        <v>10.8</v>
+        <v>10.7</v>
       </c>
       <c r="S25" t="n">
         <v>31</v>
       </c>
       <c r="T25" t="n">
-        <v>41.8</v>
+        <v>41.7</v>
       </c>
       <c r="U25" t="n">
         <v>23.2</v>
@@ -4915,7 +4982,7 @@
         <v>5.1</v>
       </c>
       <c r="Y25" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="Z25" t="n">
         <v>20.8</v>
@@ -4924,13 +4991,13 @@
         <v>22.6</v>
       </c>
       <c r="AB25" t="n">
-        <v>109.4</v>
+        <v>109.1</v>
       </c>
       <c r="AC25" t="n">
-        <v>2.2</v>
+        <v>1.9</v>
       </c>
       <c r="AD25" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AE25" t="n">
         <v>13</v>
@@ -4942,7 +5009,7 @@
         <v>13</v>
       </c>
       <c r="AH25" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI25" t="n">
         <v>1</v>
@@ -4954,7 +5021,7 @@
         <v>1</v>
       </c>
       <c r="AL25" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AM25" t="n">
         <v>19</v>
@@ -4972,7 +5039,7 @@
         <v>26</v>
       </c>
       <c r="AR25" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AS25" t="n">
         <v>10</v>
@@ -4987,7 +5054,7 @@
         <v>27</v>
       </c>
       <c r="AW25" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AX25" t="n">
         <v>11</v>
@@ -4999,13 +5066,13 @@
         <v>17</v>
       </c>
       <c r="BA25" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BB25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BC25" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BD25" t="n">
         <v>10</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>4-3-2008-09</t>
+          <t>2009-04-03</t>
         </is>
       </c>
     </row>
@@ -5037,58 +5104,58 @@
         <v>74</v>
       </c>
       <c r="E26" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F26" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G26" t="n">
-        <v>0.649</v>
+        <v>0.635</v>
       </c>
       <c r="H26" t="n">
         <v>48.4</v>
       </c>
       <c r="I26" t="n">
-        <v>36.9</v>
+        <v>36.7</v>
       </c>
       <c r="J26" t="n">
-        <v>79.40000000000001</v>
+        <v>79.3</v>
       </c>
       <c r="K26" t="n">
-        <v>0.465</v>
+        <v>0.463</v>
       </c>
       <c r="L26" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="M26" t="n">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="N26" t="n">
         <v>0.381</v>
       </c>
       <c r="O26" t="n">
-        <v>18.8</v>
+        <v>18.7</v>
       </c>
       <c r="P26" t="n">
-        <v>24.4</v>
+        <v>24.3</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.77</v>
+        <v>0.769</v>
       </c>
       <c r="R26" t="n">
-        <v>13.1</v>
+        <v>13</v>
       </c>
       <c r="S26" t="n">
-        <v>28.5</v>
+        <v>28.4</v>
       </c>
       <c r="T26" t="n">
-        <v>41.6</v>
+        <v>41.4</v>
       </c>
       <c r="U26" t="n">
         <v>20.4</v>
       </c>
       <c r="V26" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="W26" t="n">
         <v>6.7</v>
@@ -5103,31 +5170,31 @@
         <v>20.6</v>
       </c>
       <c r="AA26" t="n">
-        <v>21.1</v>
+        <v>21.2</v>
       </c>
       <c r="AB26" t="n">
-        <v>99.8</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="AC26" t="n">
-        <v>5.1</v>
+        <v>4.3</v>
       </c>
       <c r="AD26" t="n">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="AE26" t="n">
+        <v>8</v>
+      </c>
+      <c r="AF26" t="n">
         <v>7</v>
       </c>
-      <c r="AF26" t="n">
-        <v>5</v>
-      </c>
       <c r="AG26" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AH26" t="n">
         <v>11</v>
       </c>
       <c r="AI26" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ26" t="n">
         <v>22</v>
@@ -5145,13 +5212,13 @@
         <v>7</v>
       </c>
       <c r="AO26" t="n">
+        <v>18</v>
+      </c>
+      <c r="AP26" t="n">
+        <v>18</v>
+      </c>
+      <c r="AQ26" t="n">
         <v>17</v>
-      </c>
-      <c r="AP26" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ26" t="n">
-        <v>18</v>
       </c>
       <c r="AR26" t="n">
         <v>1</v>
@@ -5160,16 +5227,16 @@
         <v>28</v>
       </c>
       <c r="AT26" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AU26" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AV26" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AW26" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AX26" t="n">
         <v>13</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>4-3-2008-09</t>
+          <t>2009-04-03</t>
         </is>
       </c>
     </row>
@@ -5216,16 +5283,16 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E27" t="n">
         <v>16</v>
       </c>
       <c r="F27" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G27" t="n">
-        <v>0.213</v>
+        <v>0.216</v>
       </c>
       <c r="H27" t="n">
         <v>48.6</v>
@@ -5237,25 +5304,25 @@
         <v>81.09999999999999</v>
       </c>
       <c r="K27" t="n">
-        <v>0.45</v>
+        <v>0.449</v>
       </c>
       <c r="L27" t="n">
         <v>7.1</v>
       </c>
       <c r="M27" t="n">
-        <v>19.3</v>
+        <v>19.2</v>
       </c>
       <c r="N27" t="n">
-        <v>0.37</v>
+        <v>0.368</v>
       </c>
       <c r="O27" t="n">
-        <v>21</v>
+        <v>20.9</v>
       </c>
       <c r="P27" t="n">
         <v>26.1</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.803</v>
+        <v>0.804</v>
       </c>
       <c r="R27" t="n">
         <v>10</v>
@@ -5279,22 +5346,22 @@
         <v>4.1</v>
       </c>
       <c r="Y27" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="Z27" t="n">
-        <v>23.6</v>
+        <v>23.5</v>
       </c>
       <c r="AA27" t="n">
-        <v>21.5</v>
+        <v>21.4</v>
       </c>
       <c r="AB27" t="n">
-        <v>101.1</v>
+        <v>100.9</v>
       </c>
       <c r="AC27" t="n">
-        <v>-8.4</v>
+        <v>-8.1</v>
       </c>
       <c r="AD27" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="AE27" t="n">
         <v>30</v>
@@ -5309,10 +5376,10 @@
         <v>3</v>
       </c>
       <c r="AI27" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AJ27" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AK27" t="n">
         <v>23</v>
@@ -5324,7 +5391,7 @@
         <v>11</v>
       </c>
       <c r="AN27" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AO27" t="n">
         <v>4</v>
@@ -5351,13 +5418,13 @@
         <v>26</v>
       </c>
       <c r="AW27" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AX27" t="n">
         <v>27</v>
       </c>
       <c r="AY27" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AZ27" t="n">
         <v>29</v>
@@ -5366,7 +5433,7 @@
         <v>11</v>
       </c>
       <c r="BB27" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BC27" t="n">
         <v>29</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>4-3-2008-09</t>
+          <t>2009-04-03</t>
         </is>
       </c>
     </row>
@@ -5398,28 +5465,28 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E28" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F28" t="n">
         <v>26</v>
       </c>
       <c r="G28" t="n">
-        <v>0.653</v>
+        <v>0.649</v>
       </c>
       <c r="H28" t="n">
         <v>48.5</v>
       </c>
       <c r="I28" t="n">
-        <v>37.2</v>
+        <v>37.1</v>
       </c>
       <c r="J28" t="n">
-        <v>79.7</v>
+        <v>79.59999999999999</v>
       </c>
       <c r="K28" t="n">
-        <v>0.467</v>
+        <v>0.466</v>
       </c>
       <c r="L28" t="n">
         <v>7.7</v>
@@ -5431,22 +5498,22 @@
         <v>0.388</v>
       </c>
       <c r="O28" t="n">
-        <v>15.1</v>
+        <v>15</v>
       </c>
       <c r="P28" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.767</v>
+        <v>0.765</v>
       </c>
       <c r="R28" t="n">
-        <v>8.800000000000001</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="S28" t="n">
         <v>32.3</v>
       </c>
       <c r="T28" t="n">
-        <v>41.1</v>
+        <v>41</v>
       </c>
       <c r="U28" t="n">
         <v>21.5</v>
@@ -5461,7 +5528,7 @@
         <v>4.1</v>
       </c>
       <c r="Y28" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="Z28" t="n">
         <v>18.7</v>
@@ -5470,13 +5537,13 @@
         <v>18.3</v>
       </c>
       <c r="AB28" t="n">
-        <v>97.2</v>
+        <v>96.8</v>
       </c>
       <c r="AC28" t="n">
         <v>3.8</v>
       </c>
       <c r="AD28" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="AE28" t="n">
         <v>6</v>
@@ -5494,10 +5561,10 @@
         <v>11</v>
       </c>
       <c r="AJ28" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AK28" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AL28" t="n">
         <v>6</v>
@@ -5506,7 +5573,7 @@
         <v>8</v>
       </c>
       <c r="AN28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO28" t="n">
         <v>30</v>
@@ -5521,7 +5588,7 @@
         <v>30</v>
       </c>
       <c r="AS28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AT28" t="n">
         <v>19</v>
@@ -5548,10 +5615,10 @@
         <v>30</v>
       </c>
       <c r="BB28" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BC28" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BD28" t="n">
         <v>10</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>4-3-2008-09</t>
+          <t>2009-04-03</t>
         </is>
       </c>
     </row>
@@ -5658,13 +5725,13 @@
         <v>-2.8</v>
       </c>
       <c r="AD29" t="n">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="AE29" t="n">
         <v>22</v>
       </c>
       <c r="AF29" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AG29" t="n">
         <v>22</v>
@@ -5673,13 +5740,13 @@
         <v>14</v>
       </c>
       <c r="AI29" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AJ29" t="n">
         <v>16</v>
       </c>
       <c r="AK29" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AL29" t="n">
         <v>24</v>
@@ -5691,7 +5758,7 @@
         <v>9</v>
       </c>
       <c r="AO29" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AP29" t="n">
         <v>26</v>
@@ -5718,7 +5785,7 @@
         <v>28</v>
       </c>
       <c r="AX29" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AY29" t="n">
         <v>11</v>
@@ -5730,7 +5797,7 @@
         <v>22</v>
       </c>
       <c r="BB29" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BC29" t="n">
         <v>23</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>4-3-2008-09</t>
+          <t>2009-04-03</t>
         </is>
       </c>
     </row>
@@ -5762,22 +5829,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E30" t="n">
         <v>46</v>
       </c>
       <c r="F30" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G30" t="n">
-        <v>0.605</v>
+        <v>0.613</v>
       </c>
       <c r="H30" t="n">
         <v>48.5</v>
       </c>
       <c r="I30" t="n">
-        <v>38.4</v>
+        <v>38.5</v>
       </c>
       <c r="J30" t="n">
         <v>80.90000000000001</v>
@@ -5792,25 +5859,25 @@
         <v>13.8</v>
       </c>
       <c r="N30" t="n">
-        <v>0.35</v>
+        <v>0.349</v>
       </c>
       <c r="O30" t="n">
         <v>21.7</v>
       </c>
       <c r="P30" t="n">
-        <v>28.2</v>
+        <v>28.1</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.771</v>
+        <v>0.77</v>
       </c>
       <c r="R30" t="n">
-        <v>11.5</v>
+        <v>11.6</v>
       </c>
       <c r="S30" t="n">
-        <v>29.6</v>
+        <v>29.7</v>
       </c>
       <c r="T30" t="n">
-        <v>41.1</v>
+        <v>41.3</v>
       </c>
       <c r="U30" t="n">
         <v>24.7</v>
@@ -5819,16 +5886,16 @@
         <v>14.9</v>
       </c>
       <c r="W30" t="n">
-        <v>8.800000000000001</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="X30" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="Y30" t="n">
         <v>5.1</v>
       </c>
       <c r="Z30" t="n">
-        <v>22.3</v>
+        <v>22.4</v>
       </c>
       <c r="AA30" t="n">
         <v>23.9</v>
@@ -5840,7 +5907,7 @@
         <v>3.2</v>
       </c>
       <c r="AD30" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AE30" t="n">
         <v>10</v>
@@ -5852,7 +5919,7 @@
         <v>10</v>
       </c>
       <c r="AH30" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AI30" t="n">
         <v>6</v>
@@ -5879,31 +5946,31 @@
         <v>3</v>
       </c>
       <c r="AQ30" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AR30" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AS30" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AT30" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AU30" t="n">
         <v>1</v>
       </c>
       <c r="AV30" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AW30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX30" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AY30" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AZ30" t="n">
         <v>23</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>4-3-2008-09</t>
+          <t>2009-04-03</t>
         </is>
       </c>
     </row>
@@ -6028,7 +6095,7 @@
         <v>28</v>
       </c>
       <c r="AF31" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AG31" t="n">
         <v>29</v>
@@ -6061,7 +6128,7 @@
         <v>21</v>
       </c>
       <c r="AQ31" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AR31" t="n">
         <v>8</v>
@@ -6073,7 +6140,7 @@
         <v>23</v>
       </c>
       <c r="AU31" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AV31" t="n">
         <v>12</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>4-3-2008-09</t>
+          <t>2009-04-03</t>
         </is>
       </c>
     </row>
